--- a/target_branch.xlsx
+++ b/target_branch.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BelajarPython-Atom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kilobyte\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{751DCB15-9BB8-42B9-B324-7E4983139DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1ECBDD-A120-4E70-8286-C1C7EA1B9952}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F19510F8-A6E4-4093-A89B-622B11DD9D65}"/>
   </bookViews>
@@ -76,7 +76,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +93,13 @@
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,15 +119,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,18 +447,18 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,158 +472,158 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>784</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2">
-        <v>263141</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4172737</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" s="3">
+        <v>268369</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4107301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>214</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>102411</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1761556</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="3">
+        <v>101717</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1747721</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>215</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
-        <v>78712</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1349969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="3">
+        <v>78962.399999999994</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1352786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
-        <v>107039</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1827731</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" s="3">
+        <v>111697</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1928119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2">
-        <v>141677</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2469451</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="3">
+        <v>145946</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2547225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>785</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
-        <v>88459</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1599131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="3">
+        <v>87152.4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1580231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>212</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
-        <v>93542</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1673846</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="3">
+        <v>96894</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1737934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>301</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2">
-        <v>130769</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2266085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="3">
+        <v>135222.39999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2340290</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>219</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>96999</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1718449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="3">
+        <v>101249</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1794098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>765</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2">
-        <v>39494</v>
-      </c>
-      <c r="D11" s="1">
-        <v>650360.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="3">
+        <v>41267</v>
+      </c>
+      <c r="D11" s="3">
+        <v>680068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>764</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
-        <v>82999</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1412410.4</v>
+      <c r="C12" s="3">
+        <v>75903.399999999994</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1284586</v>
       </c>
     </row>
   </sheetData>
